--- a/Program/SIT_UAT/20210826/Other/LH001_底稿_表A07_會計部申報表.xlsx
+++ b/Program/SIT_UAT/20210826/Other/LH001_底稿_表A07_會計部申報表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7415AF0E-7337-4379-A7FD-ED8783323ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95304183-C3E1-4F3E-919B-2E05668BFB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,21 +879,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -958,41 +949,35 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
@@ -1020,31 +1005,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,40 +1071,40 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1140,19 +1125,16 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,49 +1152,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1221,16 +1185,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1590,1204 +1587,1215 @@
   <dimension ref="A1:K235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="29" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.33203125" style="60" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="0.88671875" style="20" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" style="57" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="27.109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="70" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="33.88671875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="29" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" style="58" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0.88671875" style="18" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" style="55" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="67" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="19" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-    </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="24.9" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+    </row>
+    <row r="2" spans="1:10" s="18" customFormat="1" ht="24.9" customHeight="1">
+      <c r="A2" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="89" t="s">
+      <c r="F2" s="93"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="89"/>
-    </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="J2" s="91"/>
+    </row>
+    <row r="3" spans="1:10" s="23" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-    </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="13.2">
-      <c r="A5" s="64"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A6" s="74" t="s">
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="13.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A6" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="86"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="24" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="74" t="s">
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A9" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="80"/>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="25.2">
-      <c r="A10" s="28" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="88"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="25.2">
+      <c r="A10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="24" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="78"/>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1"/>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="66" t="s">
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="71"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="89"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="31" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32" t="s">
+      <c r="F13" s="72"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="67"/>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="69"/>
-    </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="69"/>
-    </row>
-    <row r="16" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="69"/>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="16.2">
-      <c r="A17" s="87" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="64"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="65"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="66"/>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="65"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="66"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="65"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="66"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="16.2">
+      <c r="A17" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="70"/>
-    </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A18" s="43" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="67"/>
+    </row>
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="15.6">
+      <c r="A18" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="10" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="71"/>
-    </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A19" s="46">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="15.6">
+      <c r="A19" s="44">
         <v>1</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="47" t="s">
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="71"/>
-    </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A20" s="46">
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="68"/>
+    </row>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="15.6">
+      <c r="A20" s="44">
         <v>2</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="51" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="71"/>
-    </row>
-    <row r="21" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A21" s="46">
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="68"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" ht="15.6">
+      <c r="A21" s="44">
         <v>3</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="47" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="71"/>
-    </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A22" s="46">
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="68"/>
+    </row>
+    <row r="22" spans="1:10" s="4" customFormat="1" ht="15.6">
+      <c r="A22" s="44">
         <v>4</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="47" t="s">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="71"/>
-    </row>
-    <row r="23" spans="1:10" s="6" customFormat="1" ht="15.6">
-      <c r="A23" s="46">
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="68"/>
+    </row>
+    <row r="23" spans="1:10" s="4" customFormat="1" ht="15.6">
+      <c r="A23" s="44">
         <v>5</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="47" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="71"/>
-    </row>
-    <row r="24" spans="1:10" s="6" customFormat="1" ht="22.8">
-      <c r="A24" s="46">
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="68"/>
+    </row>
+    <row r="24" spans="1:10" s="4" customFormat="1" ht="22.8">
+      <c r="A24" s="44">
         <v>6</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="47" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="71"/>
-    </row>
-    <row r="25" spans="1:10" s="6" customFormat="1" ht="13.8">
-      <c r="A25" s="82" t="s">
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="68"/>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" ht="13.8">
+      <c r="A25" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="70"/>
-    </row>
-    <row r="26" spans="1:10" s="6" customFormat="1" ht="44.4">
-      <c r="A26" s="84" t="s">
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="67"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" ht="44.4">
+      <c r="A26" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="10" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="85"/>
-    </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" ht="11.4">
-      <c r="A27" s="46">
+      <c r="J26" s="76"/>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="11.4">
+      <c r="A27" s="44">
         <v>1</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="9">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="7">
         <v>11</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="85"/>
-    </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" ht="11.4">
-      <c r="A28" s="46">
+      <c r="H27" s="51"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="76"/>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="11.4">
+      <c r="A28" s="44">
         <v>1</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="9">
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="7">
         <v>12</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="85"/>
-    </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" ht="22.8">
-      <c r="A29" s="46">
+      <c r="H28" s="51"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="76"/>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1" ht="22.8">
+      <c r="A29" s="44">
         <v>2</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="72">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="69">
         <v>21</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="54"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="85"/>
-    </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" ht="22.8">
-      <c r="A30" s="46">
+      <c r="H29" s="52"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="76"/>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1" ht="22.8">
+      <c r="A30" s="44">
         <v>2</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="72">
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="69">
         <v>22</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="85"/>
-    </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" ht="44.4">
-      <c r="A31" s="46">
+      <c r="H30" s="51"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="76"/>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1" ht="44.4">
+      <c r="A31" s="44">
         <v>3</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="72">
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="69">
         <v>31</v>
       </c>
-      <c r="G31" s="54" t="s">
+      <c r="G31" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="52"/>
+      <c r="I31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="85"/>
-    </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" ht="44.4">
-      <c r="A32" s="46">
+      <c r="J31" s="76"/>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="44.4">
+      <c r="A32" s="44">
         <v>3</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="72">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="69">
         <v>32</v>
       </c>
-      <c r="G32" s="73" t="s">
+      <c r="G32" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="73"/>
-      <c r="I32" s="10" t="s">
+      <c r="H32" s="70"/>
+      <c r="I32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J32" s="85"/>
-    </row>
-    <row r="33" spans="1:11" s="6" customFormat="1" ht="44.4">
-      <c r="A33" s="46">
+      <c r="J32" s="76"/>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1" ht="44.4">
+      <c r="A33" s="44">
         <v>3</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="72">
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="69">
         <v>33</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="54"/>
-      <c r="I33" s="10" t="s">
+      <c r="H33" s="52"/>
+      <c r="I33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="85"/>
-    </row>
-    <row r="34" spans="1:11" s="6" customFormat="1" ht="44.4">
-      <c r="A34" s="46">
+      <c r="J33" s="76"/>
+    </row>
+    <row r="34" spans="1:11" s="4" customFormat="1" ht="44.4">
+      <c r="A34" s="44">
         <v>3</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="72">
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="69">
         <v>34</v>
       </c>
-      <c r="G34" s="53" t="s">
+      <c r="G34" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="10" t="s">
+      <c r="H34" s="51"/>
+      <c r="I34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J34" s="85"/>
-    </row>
-    <row r="35" spans="1:11" s="6" customFormat="1" ht="44.4">
-      <c r="A35" s="46">
+      <c r="J34" s="76"/>
+    </row>
+    <row r="35" spans="1:11" s="4" customFormat="1" ht="44.4">
+      <c r="A35" s="44">
         <v>4</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="72">
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="69">
         <v>41</v>
       </c>
-      <c r="G35" s="54" t="s">
+      <c r="G35" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="54"/>
-      <c r="I35" s="10" t="s">
+      <c r="H35" s="52"/>
+      <c r="I35" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J35" s="85"/>
-    </row>
-    <row r="36" spans="1:11" s="6" customFormat="1" ht="44.4">
-      <c r="A36" s="46">
+      <c r="J35" s="76"/>
+    </row>
+    <row r="36" spans="1:11" s="4" customFormat="1" ht="44.4">
+      <c r="A36" s="44">
         <v>4</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="72">
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="69">
         <v>42</v>
       </c>
-      <c r="G36" s="54" t="s">
+      <c r="G36" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="54"/>
-      <c r="I36" s="10" t="s">
+      <c r="H36" s="52"/>
+      <c r="I36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J36" s="85"/>
-    </row>
-    <row r="37" spans="1:11" s="6" customFormat="1" ht="44.4">
-      <c r="A37" s="46">
+      <c r="J36" s="76"/>
+    </row>
+    <row r="37" spans="1:11" s="4" customFormat="1" ht="44.4">
+      <c r="A37" s="44">
         <v>4</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="72">
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="69">
         <v>43</v>
       </c>
-      <c r="G37" s="54" t="s">
+      <c r="G37" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="54"/>
-      <c r="I37" s="10" t="s">
+      <c r="H37" s="52"/>
+      <c r="I37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="85"/>
-    </row>
-    <row r="38" spans="1:11" s="6" customFormat="1" ht="44.4">
-      <c r="A38" s="46">
+      <c r="J37" s="76"/>
+    </row>
+    <row r="38" spans="1:11" s="4" customFormat="1" ht="44.4">
+      <c r="A38" s="44">
         <v>4</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="72">
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="69">
         <v>44</v>
       </c>
-      <c r="G38" s="54" t="s">
+      <c r="G38" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="10" t="s">
+      <c r="H38" s="52"/>
+      <c r="I38" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J38" s="85"/>
-    </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" ht="44.4">
-      <c r="A39" s="46">
+      <c r="J38" s="76"/>
+    </row>
+    <row r="39" spans="1:11" s="4" customFormat="1" ht="44.4">
+      <c r="A39" s="44">
         <v>4</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="72">
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="69">
         <v>45</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="10" t="s">
+      <c r="H39" s="51"/>
+      <c r="I39" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J39" s="85"/>
-    </row>
-    <row r="40" spans="1:11" s="6" customFormat="1" ht="22.8">
-      <c r="A40" s="46">
+      <c r="J39" s="76"/>
+    </row>
+    <row r="40" spans="1:11" s="4" customFormat="1" ht="22.8">
+      <c r="A40" s="44">
         <v>5</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="72">
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="69">
         <v>51</v>
       </c>
-      <c r="G40" s="54" t="s">
+      <c r="G40" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="54"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="85"/>
-    </row>
-    <row r="41" spans="1:11" s="6" customFormat="1" ht="22.8">
-      <c r="A41" s="46">
+      <c r="H40" s="52"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="76"/>
+    </row>
+    <row r="41" spans="1:11" s="4" customFormat="1" ht="22.8">
+      <c r="A41" s="44">
         <v>5</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="72">
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="69">
         <v>52</v>
       </c>
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="H41" s="54"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="85"/>
-    </row>
-    <row r="42" spans="1:11" s="6" customFormat="1" ht="11.4">
-      <c r="A42" s="46">
+      <c r="H41" s="52"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="76"/>
+    </row>
+    <row r="42" spans="1:11" s="4" customFormat="1" ht="11.4">
+      <c r="A42" s="44">
         <v>5</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="72">
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="69">
         <v>53</v>
       </c>
-      <c r="G42" s="54" t="s">
+      <c r="G42" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="54"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="85"/>
-    </row>
-    <row r="43" spans="1:11" s="6" customFormat="1" ht="11.4">
-      <c r="A43" s="46">
+      <c r="H42" s="52"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="76"/>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" ht="11.4">
+      <c r="A43" s="44">
         <v>5</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="72">
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="69">
         <v>54</v>
       </c>
-      <c r="G43" s="73" t="s">
+      <c r="G43" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="73"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="85"/>
-    </row>
-    <row r="44" spans="1:11" s="6" customFormat="1" ht="22.8">
-      <c r="A44" s="46">
+      <c r="H43" s="70"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="76"/>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1" ht="22.8">
+      <c r="A44" s="44">
         <v>5</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="72">
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="69">
         <v>55</v>
       </c>
-      <c r="G44" s="54" t="s">
+      <c r="G44" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="54"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="85"/>
-    </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" ht="22.8">
-      <c r="A45" s="46">
+      <c r="H44" s="52"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="76"/>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1" ht="22.8">
+      <c r="A45" s="44">
         <v>5</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="72">
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="69">
         <v>56</v>
       </c>
-      <c r="G45" s="54" t="s">
+      <c r="G45" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="54"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="85"/>
-    </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" ht="22.8">
-      <c r="A46" s="46">
+      <c r="H45" s="52"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="76"/>
+    </row>
+    <row r="46" spans="1:11" s="4" customFormat="1" ht="22.8">
+      <c r="A46" s="44">
         <v>5</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="72">
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="69">
         <v>57</v>
       </c>
-      <c r="G46" s="54" t="s">
+      <c r="G46" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="54"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="85"/>
-    </row>
-    <row r="47" spans="1:11" s="6" customFormat="1" ht="22.8">
-      <c r="A47" s="46">
+      <c r="H46" s="52"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="76"/>
+    </row>
+    <row r="47" spans="1:11" s="4" customFormat="1" ht="22.8">
+      <c r="A47" s="44">
         <v>5</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="72">
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="69">
         <v>58</v>
       </c>
-      <c r="G47" s="53" t="s">
+      <c r="G47" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="53"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="85"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="76"/>
     </row>
     <row r="48" spans="1:11" ht="15.6">
-      <c r="A48" s="46">
+      <c r="A48" s="44">
         <v>6</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="72">
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="69">
         <v>60</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="86" t="s">
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A49" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="55"/>
-      <c r="E49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="70"/>
-    </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="86" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="53"/>
+      <c r="E49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="67"/>
+    </row>
+    <row r="50" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A50" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="55"/>
-      <c r="E50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="70"/>
-    </row>
-    <row r="51" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="86" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="53"/>
+      <c r="E50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="67"/>
+    </row>
+    <row r="51" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A51" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="55"/>
-      <c r="E51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="70"/>
-    </row>
-    <row r="52" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A52" s="86" t="s">
+      <c r="B51" s="36"/>
+      <c r="C51" s="53"/>
+      <c r="E51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="67"/>
+    </row>
+    <row r="52" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A52" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="55"/>
-      <c r="E52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="70"/>
-    </row>
-    <row r="53" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="86" t="s">
+      <c r="B52" s="36"/>
+      <c r="C52" s="53"/>
+      <c r="E52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="67"/>
+    </row>
+    <row r="53" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A53" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="55"/>
-      <c r="E53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="70"/>
-    </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="56"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="55"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="70"/>
-    </row>
-    <row r="55" spans="1:10" s="15" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A55" s="56"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="70"/>
-    </row>
-    <row r="56" spans="1:10" s="6" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="70"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="53"/>
+      <c r="E53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="67"/>
+    </row>
+    <row r="54" spans="1:10" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A54" s="54"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="53"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="67"/>
+    </row>
+    <row r="55" spans="1:10" s="13" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A55" s="54"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="67"/>
+    </row>
+    <row r="56" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A56" s="56"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="67"/>
     </row>
     <row r="57" spans="1:10" ht="21.75" customHeight="1"/>
     <row r="58" spans="1:10" ht="23.25" customHeight="1"/>
-    <row r="59" spans="1:10" s="6" customFormat="1" ht="15.9" customHeight="1">
-      <c r="A59" s="58"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="70"/>
-    </row>
-    <row r="60" spans="1:10" s="6" customFormat="1" ht="15.9" customHeight="1">
-      <c r="A60" s="58"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="70"/>
-    </row>
-    <row r="61" spans="1:10" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A61" s="58"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="70"/>
-    </row>
-    <row r="62" spans="1:10" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A62" s="58"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="70"/>
-    </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" ht="15.9" customHeight="1">
-      <c r="A63" s="58"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="70"/>
-    </row>
-    <row r="64" spans="1:10" s="6" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A64" s="58"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="70"/>
-    </row>
-    <row r="65" spans="1:10" s="6" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A65" s="58"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="70"/>
-    </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="A66" s="58"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="70"/>
-    </row>
-    <row r="67" spans="1:10" s="6" customFormat="1" ht="24" customHeight="1">
-      <c r="A67" s="58"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="70"/>
-    </row>
-    <row r="68" spans="1:10" s="6" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A68" s="58"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="70"/>
-    </row>
-    <row r="69" spans="1:10" s="6" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A69" s="58"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="70"/>
-    </row>
-    <row r="70" spans="1:10" s="6" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A70" s="58"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="70"/>
-    </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A71" s="58"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="70"/>
-    </row>
-    <row r="72" spans="1:10" s="6" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A72" s="58"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="70"/>
-    </row>
-    <row r="73" spans="1:10" s="6" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A73" s="58"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="70"/>
-    </row>
-    <row r="74" spans="1:10" s="6" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A74" s="58"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="70"/>
+    <row r="59" spans="1:10" s="4" customFormat="1" ht="15.9" customHeight="1">
+      <c r="A59" s="56"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="67"/>
+    </row>
+    <row r="60" spans="1:10" s="4" customFormat="1" ht="15.9" customHeight="1">
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="67"/>
+    </row>
+    <row r="61" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A61" s="56"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="67"/>
+    </row>
+    <row r="62" spans="1:10" s="4" customFormat="1" ht="30" customHeight="1">
+      <c r="A62" s="56"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="67"/>
+    </row>
+    <row r="63" spans="1:10" s="4" customFormat="1" ht="15.9" customHeight="1">
+      <c r="A63" s="56"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="67"/>
+    </row>
+    <row r="64" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A64" s="56"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="67"/>
+    </row>
+    <row r="65" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A65" s="56"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="67"/>
+    </row>
+    <row r="66" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1">
+      <c r="A66" s="56"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="67"/>
+    </row>
+    <row r="67" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1">
+      <c r="A67" s="56"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="67"/>
+    </row>
+    <row r="68" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A68" s="56"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="67"/>
+    </row>
+    <row r="69" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A69" s="56"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="67"/>
+    </row>
+    <row r="70" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A70" s="56"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="67"/>
+    </row>
+    <row r="71" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A71" s="56"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="67"/>
+    </row>
+    <row r="72" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A72" s="56"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="67"/>
+    </row>
+    <row r="73" spans="1:10" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A73" s="56"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="67"/>
+    </row>
+    <row r="74" spans="1:10" s="4" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A74" s="56"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="67"/>
     </row>
     <row r="75" spans="1:10" ht="21.75" customHeight="1"/>
     <row r="76" spans="1:10" ht="21.75" customHeight="1"/>
@@ -2802,125 +2810,125 @@
     <row r="85" spans="1:10" ht="15.9" customHeight="1"/>
     <row r="86" spans="1:10" ht="15.9" customHeight="1"/>
     <row r="87" spans="1:10" ht="15.9" customHeight="1"/>
-    <row r="88" spans="1:10" s="6" customFormat="1" ht="24.9" customHeight="1">
-      <c r="A88" s="58"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="70"/>
-    </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" ht="24.9" customHeight="1">
-      <c r="A89" s="58"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="70"/>
-    </row>
-    <row r="90" spans="1:10" s="6" customFormat="1" ht="24.9" customHeight="1">
-      <c r="A90" s="58"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="70"/>
-    </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" ht="24.9" customHeight="1">
-      <c r="A91" s="58"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="60"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="70"/>
-    </row>
-    <row r="92" spans="1:10" s="6" customFormat="1" ht="24.9" customHeight="1">
-      <c r="A92" s="58"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="70"/>
-    </row>
-    <row r="94" spans="1:10" s="18" customFormat="1" ht="24.9" customHeight="1">
-      <c r="A94" s="58"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="70"/>
-    </row>
-    <row r="95" spans="1:10" s="18" customFormat="1" ht="24.9" customHeight="1">
-      <c r="A95" s="58"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="70"/>
-    </row>
-    <row r="96" spans="1:10" s="18" customFormat="1" ht="24.9" customHeight="1">
-      <c r="A96" s="58"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="70"/>
-    </row>
-    <row r="97" spans="1:10" s="18" customFormat="1" ht="24.9" customHeight="1">
-      <c r="A97" s="58"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="70"/>
-    </row>
-    <row r="98" spans="1:10" s="18" customFormat="1" ht="24.9" customHeight="1">
-      <c r="A98" s="58"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="25"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="70"/>
+    <row r="88" spans="1:10" s="4" customFormat="1" ht="24.9" customHeight="1">
+      <c r="A88" s="56"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="67"/>
+    </row>
+    <row r="89" spans="1:10" s="4" customFormat="1" ht="24.9" customHeight="1">
+      <c r="A89" s="56"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="67"/>
+    </row>
+    <row r="90" spans="1:10" s="4" customFormat="1" ht="24.9" customHeight="1">
+      <c r="A90" s="56"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="67"/>
+    </row>
+    <row r="91" spans="1:10" s="4" customFormat="1" ht="24.9" customHeight="1">
+      <c r="A91" s="56"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="67"/>
+    </row>
+    <row r="92" spans="1:10" s="4" customFormat="1" ht="24.9" customHeight="1">
+      <c r="A92" s="56"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="67"/>
+    </row>
+    <row r="94" spans="1:10" s="16" customFormat="1" ht="24.9" customHeight="1">
+      <c r="A94" s="56"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="67"/>
+    </row>
+    <row r="95" spans="1:10" s="16" customFormat="1" ht="24.9" customHeight="1">
+      <c r="A95" s="56"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="67"/>
+    </row>
+    <row r="96" spans="1:10" s="16" customFormat="1" ht="24.9" customHeight="1">
+      <c r="A96" s="56"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="67"/>
+    </row>
+    <row r="97" spans="1:10" s="16" customFormat="1" ht="24.9" customHeight="1">
+      <c r="A97" s="56"/>
+      <c r="B97" s="57"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="67"/>
+    </row>
+    <row r="98" spans="1:10" s="16" customFormat="1" ht="24.9" customHeight="1">
+      <c r="A98" s="56"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="67"/>
     </row>
     <row r="235" ht="15.75" customHeight="1"/>
   </sheetData>
